--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.02b.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.02b.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
   <si>
     <t>Due Date</t>
   </si>
@@ -309,15 +309,7 @@
     <t>ASG_API Playbook_13.00 API Documentation Blueprint_Section_01.01_Initial Draft.docx</t>
   </si>
   <si>
-    <t>ASG_API Playbook_01.00 Introduction_Section_01.01_Initial Draft.docx
-ASG_API Playbook_01.00 Introduction_Section_01.02_SME Review {Paul Marshall}.docx
-ASG_API Playbook_01.03 Introduction Section_01.03_Standards Review Resolution {Braunstein}.docx</t>
-  </si>
-  <si>
     <t>Kanban</t>
-  </si>
-  <si>
-    <t>Standards Review</t>
   </si>
   <si>
     <t>Tech Review</t>
@@ -344,18 +336,12 @@
     <t>Paul to research history.</t>
   </si>
   <si>
-    <t>Ready for Paul's review.</t>
-  </si>
-  <si>
     <t>SME Review Resolution</t>
   </si>
   <si>
     <t>Included in 5.1</t>
   </si>
   <si>
-    <t>Received file…put in GitHub</t>
-  </si>
-  <si>
     <t>Frank/Ron</t>
   </si>
   <si>
@@ -363,6 +349,21 @@
   </si>
   <si>
     <t>9.1 - 9.8 is one document (Paul to reach out to frank)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASG_API Playbook_01.00 Introduction_Section_01.01_Initial Draft.docx
+ASG_API Playbook_01.00 Introduction_Section_01.02_SME Review {Paul Marshall}.docx
+ASG_API Playbook_01.03 Introduction Section_01.03_Standards Review Resolution {Braunstein}.docx
+</t>
+  </si>
+  <si>
+    <t>Publication Review</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_05.03 Configuration Parameters_01.01 Initial Draft {Max}.docx</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1313,16 +1316,16 @@
         <v>74</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1345,14 +1348,12 @@
         <v>47</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>101</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
@@ -1377,13 +1378,13 @@
         <v>64</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1409,7 +1410,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>78</v>
@@ -1439,7 +1440,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>79</v>
@@ -1469,7 +1470,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>80</v>
@@ -1499,7 +1500,7 @@
         <v>68</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>81</v>
@@ -1528,7 +1529,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I8" s="30"/>
     </row>
@@ -1555,12 +1556,12 @@
         <v>69</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
@@ -1585,7 +1586,7 @@
         <v>73</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>82</v>
@@ -1615,7 +1616,7 @@
         <v>73</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>83</v>
@@ -1645,7 +1646,7 @@
         <v>64</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>84</v>
@@ -1675,7 +1676,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>85</v>
@@ -1693,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>43</v>
@@ -1705,11 +1706,11 @@
         <v>69</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -1735,7 +1736,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>86</v>
@@ -1765,10 +1766,10 @@
         <v>68</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -1795,7 +1796,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="18"/>
@@ -1823,7 +1824,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="17"/>
@@ -1851,7 +1852,7 @@
         <v>68</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="18"/>
@@ -1879,7 +1880,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="17"/>
@@ -1907,7 +1908,7 @@
         <v>68</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="18"/>
@@ -1935,7 +1936,7 @@
         <v>68</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="17"/>
@@ -1963,7 +1964,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>87</v>
@@ -1993,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>88</v>
@@ -2023,7 +2024,7 @@
         <v>64</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="18"/>
@@ -2051,7 +2052,7 @@
         <v>69</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="34"/>
@@ -2079,7 +2080,7 @@
         <v>64</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>89</v>
@@ -2109,7 +2110,7 @@
         <v>69</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="34"/>
@@ -2137,7 +2138,7 @@
         <v>69</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>90</v>
